--- a/yourapp/static/JTMS.xlsx
+++ b/yourapp/static/JTMS.xlsx
@@ -41,7 +41,7 @@
     <t>Up to date</t>
   </si>
   <si>
-    <t>7.99%</t>
+    <t>7.78%</t>
   </si>
   <si>
     <t>Every 20 minutes</t>
@@ -53,7 +53,7 @@
     <t>23A/26A -A5127 O/B, GravellyHill</t>
   </si>
   <si>
-    <t>9.67%</t>
+    <t>9.7%</t>
   </si>
   <si>
     <t>JTMS20</t>
@@ -62,7 +62,10 @@
     <t>23B - A5127 O/B, Lichfield Road</t>
   </si>
   <si>
-    <t>19.04%</t>
+    <t>5 days ago</t>
+  </si>
+  <si>
+    <t>18.9%</t>
   </si>
   <si>
     <t>JTMS24</t>
@@ -71,7 +74,7 @@
     <t>29B - A435 O/B AlcesterRoadSouth</t>
   </si>
   <si>
-    <t>81.2%</t>
+    <t>80.18%</t>
   </si>
   <si>
     <t>Every 5 minutes</t>
@@ -83,7 +86,7 @@
     <t>3A - A34 I/B Walsall Road</t>
   </si>
   <si>
-    <t>82.23%</t>
+    <t>82.06%</t>
   </si>
   <si>
     <t>JTMS38</t>
@@ -92,7 +95,7 @@
     <t>3B1 - A34 I/B Lancaster Circus</t>
   </si>
   <si>
-    <t>81.99%</t>
+    <t>82.37%</t>
   </si>
   <si>
     <t>JTMS4</t>
@@ -101,7 +104,7 @@
     <t>5A - A45  SmallHeath Highwy O/B</t>
   </si>
   <si>
-    <t>64.24%</t>
+    <t>63.23%</t>
   </si>
   <si>
     <t>JTMS40</t>
@@ -110,7 +113,7 @@
     <t>4B - A34 O/B WalsallRd, PBeeches</t>
   </si>
   <si>
-    <t>8.5%</t>
+    <t>8.05%</t>
   </si>
   <si>
     <t>JTMS41</t>
@@ -119,7 +122,7 @@
     <t>5B - A45  Coventry Road O/B</t>
   </si>
   <si>
-    <t>64.35%</t>
+    <t>63.33%</t>
   </si>
   <si>
     <t>JTMS43</t>
@@ -128,7 +131,7 @@
     <t>7B - A435 I/B Haden Circus</t>
   </si>
   <si>
-    <t>8.38%</t>
+    <t>8.34%</t>
   </si>
   <si>
     <t>JTMS47</t>
@@ -137,91 +140,88 @@
     <t>11A - A47 O/B Nechells Parkway</t>
   </si>
   <si>
+    <t>7.81%</t>
+  </si>
+  <si>
+    <t>JTMS48</t>
+  </si>
+  <si>
+    <t>12A - A34 (SoC) Stratford Rd I/B</t>
+  </si>
+  <si>
+    <t>66.31%</t>
+  </si>
+  <si>
+    <t>JTMS49</t>
+  </si>
+  <si>
+    <t>12B - A34(SoC)I/B CampHillMidlwy</t>
+  </si>
+  <si>
+    <t>66.47%</t>
+  </si>
+  <si>
+    <t>JTMS5</t>
+  </si>
+  <si>
+    <t>6B - A45 I/B Bordersley Circus</t>
+  </si>
+  <si>
+    <t>2.82%</t>
+  </si>
+  <si>
+    <t>JTMS55</t>
+  </si>
+  <si>
+    <t>15A1 -  A456 Hagley Rd I/B</t>
+  </si>
+  <si>
+    <t>47.39%</t>
+  </si>
+  <si>
+    <t>JTMS56</t>
+  </si>
+  <si>
+    <t>15B - A456I/B Hagley Rd/FiveWays</t>
+  </si>
+  <si>
+    <t>47.71%</t>
+  </si>
+  <si>
+    <t>JTMS60</t>
+  </si>
+  <si>
+    <t>19A - A34 (SoC) O/B Stratford Rd</t>
+  </si>
+  <si>
+    <t>50.89%</t>
+  </si>
+  <si>
+    <t>JTMS61</t>
+  </si>
+  <si>
+    <t>19B - A34 (SoC) O/B Stratford Rd</t>
+  </si>
+  <si>
+    <t>50.62%</t>
+  </si>
+  <si>
+    <t>JTMS62</t>
+  </si>
+  <si>
+    <t>20A - A41 (SoC) O/B Warwick Rd</t>
+  </si>
+  <si>
     <t>8.04%</t>
   </si>
   <si>
-    <t>JTMS48</t>
-  </si>
-  <si>
-    <t>12A - A34 (SoC) Stratford Rd I/B</t>
-  </si>
-  <si>
-    <t>67.04%</t>
-  </si>
-  <si>
-    <t>JTMS49</t>
-  </si>
-  <si>
-    <t>12B - A34(SoC)I/B CampHillMidlwy</t>
-  </si>
-  <si>
-    <t>67.14%</t>
-  </si>
-  <si>
-    <t>JTMS5</t>
-  </si>
-  <si>
-    <t>6B - A45 I/B Bordersley Circus</t>
-  </si>
-  <si>
-    <t>20 days ago</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>JTMS55</t>
-  </si>
-  <si>
-    <t>15A1 -  A456 Hagley Rd I/B</t>
-  </si>
-  <si>
-    <t>46.76%</t>
-  </si>
-  <si>
-    <t>JTMS56</t>
-  </si>
-  <si>
-    <t>15B - A456I/B Hagley Rd/FiveWays</t>
-  </si>
-  <si>
-    <t>47.84%</t>
-  </si>
-  <si>
-    <t>JTMS60</t>
-  </si>
-  <si>
-    <t>19A - A34 (SoC) O/B Stratford Rd</t>
-  </si>
-  <si>
-    <t>51.38%</t>
-  </si>
-  <si>
-    <t>JTMS61</t>
-  </si>
-  <si>
-    <t>19B - A34 (SoC) O/B Stratford Rd</t>
-  </si>
-  <si>
-    <t>51.19%</t>
-  </si>
-  <si>
-    <t>JTMS62</t>
-  </si>
-  <si>
-    <t>20A - A41 (SoC) O/B Warwick Rd</t>
-  </si>
-  <si>
-    <t>8.27%</t>
-  </si>
-  <si>
     <t>JTMS63</t>
   </si>
   <si>
     <t>21B - A41 (SoC) I/B Warwick Rd</t>
   </si>
   <si>
-    <t>7.97%</t>
+    <t>7.88%</t>
   </si>
   <si>
     <t>JTMS68</t>
@@ -230,7 +230,7 @@
     <t>27A - A38(NoC)O/B StChadsQuenswy</t>
   </si>
   <si>
-    <t>7.41%</t>
+    <t>7.16%</t>
   </si>
   <si>
     <t>JTMS71</t>
@@ -239,7 +239,7 @@
     <t>29A - A435 O/B Haden Way</t>
   </si>
   <si>
-    <t>81.05%</t>
+    <t>79.82%</t>
   </si>
 </sst>
 </file>
@@ -678,11 +678,11 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
@@ -690,84 +690,84 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -775,33 +775,33 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
@@ -809,16 +809,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
@@ -826,47 +826,47 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>50</v>
@@ -889,7 +889,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -906,7 +906,7 @@
         <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -923,7 +923,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -940,7 +940,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1004,11 +1004,11 @@
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
